--- a/missing_reports.xlsx
+++ b/missing_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cell Culture Market Size, Share, Growth Analysis, By Product, By Application, By End User, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1588517-cell-culture-market-size-share-growth-analysis-by.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>November 7, 2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>208 Pages</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SQMIG35H2257</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/missing_reports.xlsx
+++ b/missing_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,43 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cell Culture Market Size, Share, Growth Analysis, By Product, By Application, By End User, By Region - Industry Forecast 2024-2031</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.giiresearch.com/report/sky1588517-cell-culture-market-size-share-growth-analysis-by.html</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>USD 5300</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>November 7, 2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>208 Pages</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SkyQuest</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SQMIG35H2257</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/missing_reports.xlsx
+++ b/missing_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,1375 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Global Advanced Wound Care Market Size, Share, Growth Analysis, By Product(Dressings (Foam, Hydrocolloid), By Wound Type(Surgical, Traumatic), By End-User(Hospital, Homecare) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260005-global-advanced-wound-care-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>November 25, 2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SQMIG35D2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Global Low Voltage DC Circuit Breaker Market Size, Share, Growth Analysis, By Type(Miniature Circuit Breaker, Molded Case Circuit Breaker), By End-Use(Battery Systems, Data Centers) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260004-global-low-voltage-dc-circuit-breaker-market-size.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>November 25, 2022</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SQSG20D2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Global Packed Pickles Market Size, Share, Growth Analysis, By Product, By Distribution Channel, By Packaging, By Region - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260003-global-packed-pickles-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>November 25, 2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SQSG30I2056</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Global Healthcare Consulting Services Market Size, Share, Growth Analysis, By Type of Service(Digital Health, IT), By End User(Government Bodies, Healthcare Providers) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244321-global-healthcare-consulting-services-market-size.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>November 25, 2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SQMIG35D2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Global Programmable Logic Controller (PLC) Market Size, Share, Growth Analysis, By Type(Integrated or compact PLC, Modular PLC), By Solution(Hardware, Processor), By Industry vertical(Energy &amp; Power, Automotive) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244320-global-programmable-logic-controller-plc-market.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>November 25, 2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SQSG20I2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Global Data Center Transformer Market Size, Share, Growth Analysis, By Application(Main Transformer, UPS Transformer), By Insulation Insight(Liquid, Dry) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260002-global-data-center-transformer-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>November 24, 2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SQSG45I2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Global Home Health Market Size, Share, Growth Analysis, By Product(Testing, Screening), By Service(Skilled Nursing Services, Rehabilitation Therapy Services) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250065-global-home-health-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>November 24, 2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>155 Pages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SQMIG35D2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Global Rigid Packaging Market Size, Share, Growth Analysis, By Material(Plastic,Wood), By Application(Food &amp; Beverages,Pharmaceuticals), By Product(Bottle &amp; Jars,Trays), By Production process(Extrusion, Injection Molding)-Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244319-global-rigid-packaging-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>November 24, 2022</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SQSG15G2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASEAN And South Asia Mammography Systems Market Size, Share, Growth Analysis, By Product, By Technology, By End-user - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244318-asean-south-asia-mammography-systems-market-size.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>November 24, 2022</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>225 Pages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SQSA35G2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Global Off-Grid Housing Market Size, Share, Growth Analysis, By Renewable Energy(Solar, Wind), By House Type(RV, Country Cabin) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260056-global-off-grid-housing-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>November 23, 2022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>279 Pages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SQSG55E2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Global Hand-held Surgical Instruments Market Size, Share, Growth Analysis, By Product(Forceps, Retractors), By Application(Neurosurgery, Cardiovascular), By End-User(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260001-global-hand-held-surgical-instruments-market-size.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>November 23, 2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SQSG35A2034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Global Dynamic Random Access Memory Market Size, Share, Growth Analysis, By Type(Synchronous DRAM, Extended Data Output), By Technology(DDR4, DDR5), By Application(Mobiles. PCs/Laptops, Gaming Consoles) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244317-global-dynamic-random-access-memory-market-size.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>November 23, 2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>SQSG45N2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Global Wave Spring Market Size, Share, Growth Analysis, By Type(Crest-to-Crest Wave Spring, Glass Wave Spring), By Application(Aerospace Electrical Connector, Electronic Tools) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244316-global-wave-spring-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>November 23, 2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SQSG20C2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Global D-psicose Market Size, Share, Growth Analysis, By Application(Food, Beverages), By Type(Powder, Syrup) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250091-global-d-psicose-market-size-share-growth-analysis.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>248 Pages</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SQMIG15E2071</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Global Swine Feed Market Size, Share, Growth Analysis, By Type(Starter Feed, Sow Feed), By Form(Pellets, Mash), By Additives(Vitamins &amp; Minerals, Amino acids) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250090-global-swine-feed-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SQSG30C2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Global In-Vitro Diagnostics Market Size, Share, Growth Analysis, By Product &amp; Service, By Technology, By Application, By End-User - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250089-global-vitro-diagnostics-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SQSG35G2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Global Pre-workout Supplements Market Size, Share, Growth Analysis, By Form(Powder, Capsule), By Distribution Channel(Online, Offline), By Application(Enterprises, Personal) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250088-global-pre-workout-supplements-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SQMIG30L2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Global Wearable Robotic Exoskeleton Market Size, Share, Growth Analysis, By Type(Full Body, Upper Body), By End-User(Industrial, Defense) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250087-global-wearable-robotic-exoskeleton-market-size.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SQSG25K2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Global Food Service Equipment Market Size, Share, Growth Analysis, By End-user(Full Service Restaurant, Quick Service Restaurant ), By Sales Channel, By Product - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250086-global-food-service-equipment-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SQSG45J2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Global PFO Amplatzer Market Size, Share, Growth Analysis, By Type(Amplatzer PFO Occluder), By Application(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250085-global-pfo-amplatzer-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>221 Pages</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SQSG35A2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Global Smart Pillows Market Size, Share, Growth Analysis, By Application(Residential, Commercial), By Distribution Channel(Online, Offline) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250084-global-smart-pillows-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SQSG30L2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Global Commodity Plastics Market Size, Share, Growth Analysis, By Product Type(Polyethylene (PE), Polypropylene (PP)), By Application(Packaging, Automotive), By Plastic Type (Reusable, Recyclable) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250083-global-commodity-plastics-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SQSU15A2040</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Global Automotive Interior Materials Market Size, Share, Growth Analysis, By Product type(Leather, Composite), By Application (Dashboard, Seats), By Vehicle(Passenger vehicle, Light commercial vehicle) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250082-global-automotive-interior-materials-market-size.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SQSG25A2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Global Fingerprint Sensor Market Size, Share, Growth Analysis, By Technology, By Product Type, By Materials Used, By Products, By End-use, By Sensor Technology - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250081-global-fingerprint-sensor-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SQSG45J2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Global Mobile Edge Computing Market Size, Share, Growth Analysis, By Solution, By End Use, By Organization size, By Verticals, By Application - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250080-global-mobile-edge-computing-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SQSG50A2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Global GPS Market Size, Share, Growth Analysis, By Type(Automotive Telematics Systems, Consumer Devices), By Industry(Construction, Metals &amp; Mining) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250072-global-gps-market-size-share-growth-analysis-by.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SQMG25V2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Global Blepharoplasty Market Size, Share, Growth Analysis, By Procedure Type(Upper Eyelid Surgery, Lower Eyelid Surgery), By End-user(Clinics, Hospitals) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250071-global-blepharoplasty-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SQMG35E2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Global Waxy Maize Starch Market Size, Share, Growth Analysis, By Type(Native Starch, Modified Starch), By End User(Foods, Beverages), By Nature(Organic and Conventional ) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250070-global-waxy-maize-starch-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SQSG15E2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Global Steering Column Control Module Market Size, Share, Growth Analysis, By System Type, By Vehicle Type, By Steering types - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250069-global-steering-column-control-module-market-size.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>272 Pages</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SQSG25AG2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Global Satellite Communication Market Size, Share, Growth Analysis, By Components(Equipment, By Application(Asset Tracking/Monitoring, Airtime, By Verticals(Energy &amp; Utility, Government &amp; Defense - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244315-global-satellite-communication-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SQMIG45H2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Global Textile Colorant Market Size, Share, Growth Analysis, By Source(Natural, Synthetic), By Type(Zoic Dyes, Direct Dyes), By Application(Clothing, Technical Textiles) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244314-global-textile-colorant-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SQSG15E2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>US Laundry Facilities Dry Cleaning Services Market Size, Share, Growth Analysis, By Form(Powder, Liquid), By Type (Coin-operated, Retail Laundry/Dry Clean Services), By Application(Residential, Commercial) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260000-us-laundry-facilities-dry-cleaning-services-market.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SQSU25S2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Global Telecom Generator Market Size, Share, Growth Analysis, By Component(Rectifiers, Inverters), By Grid-type(On-Grid, Off-Grid), By Fuel(Diesel, Gas), By Power Rating(Below 75 kVA, 75 kVA - 375 kVA) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244313-global-telecom-generator-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SQMG45A2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Global Gypsum Board Market Size, Share, Growth Analysis, By Product(Wallboard, Ceiling Board), By Type(Standard, Type X), By Application(Pre-engineered Buildings, Residential) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244312-global-gypsum-board-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SQMIG15F2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Global Aircraft Line Maintenance Market Size, Share, Growth Analysis, By Type, By Service, By Aircraft Type(Narrow Body Aircraft, Wide Body Aircraft ) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1259999-global-aircraft-line-maintenance-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>278 Pages</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SQSG20R2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Global Artisanal Ice Cream Market Size, Share, Growth Analysis, By Type(Lactose-free, Conventional), By Flavour(Chocolate, Vanilla), By Distribution Channel(Convenience Stores, Specialty Stores) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244311-global-artisanal-ice-cream-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>SQMIG30I2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Global Yellow Pea Protein Market Size, Share, Growth Analysis, By Type, By Source process, By Processing method, By Application, By Form - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244310-global-yellow-pea-protein-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>USD 3500</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SQSG30B2008</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/missing_reports.xlsx
+++ b/missing_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Global Advanced Wound Care Market Size, Share, Growth Analysis, By Product(Dressings (Foam, Hydrocolloid), By Wound Type(Surgical, Traumatic), By End-User(Hospital, Homecare) - Industry Forecast 2022-2028</t>
+          <t>CBD oil Market Size, Share, Growth Analysis, By Source Type (Hemp, Marijuana), By Sales Channel (B2B, B2C), By End Use (Medical, Wellness), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260005-global-advanced-wound-care-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1569513-cbd-oil-market-size-share-growth-analysis-by.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November 25, 2022</t>
+          <t>October 13, 2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>157 Pages</t>
+          <t>219 Pages</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,19 +503,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SQMIG35D2009</t>
+          <t>SQMIG35I2319</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global Low Voltage DC Circuit Breaker Market Size, Share, Growth Analysis, By Type(Miniature Circuit Breaker, Molded Case Circuit Breaker), By End-Use(Battery Systems, Data Centers) - Industry Forecast 2022-2028</t>
+          <t>Legal Cannabis Market Size, Share, Growth Analysis, By Source (Marijuana, Hemp), By Derivative (CBD, THC), By End-use (Medical Use, Industrial Use), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260004-global-low-voltage-dc-circuit-breaker-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1566218-legal-cannabis-market-size-share-growth-analysis.html</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>November 25, 2022</t>
+          <t>October 6, 2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>219 Pages</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,19 +540,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SQSG20D2015</t>
+          <t>SQMIG35J2105</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Global Packed Pickles Market Size, Share, Growth Analysis, By Product, By Distribution Channel, By Packaging, By Region - Industry Forecast 2022-2028</t>
+          <t>Medical Cannabis Market Size, Share, Growth Analysis, By Application (Pain Management, Others), By Type (Flower, Concentrates), By Distribution Channel (Pharmacies, Online Retailers), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260003-global-packed-pickles-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1548869-medical-cannabis-market-size-share-growth-analysis.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>November 25, 2022</t>
+          <t>August 27, 2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>157 Pages</t>
+          <t>219 Pages</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,19 +577,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SQSG30I2056</t>
+          <t>SQMIG35I2169</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Global Healthcare Consulting Services Market Size, Share, Growth Analysis, By Type of Service(Digital Health, IT), By End User(Government Bodies, Healthcare Providers) - Industry Forecast 2022-2028</t>
+          <t>Cannabis Market Size, Share, Growth Analysis, By Product (Flowers, Edibles), Compound (Cannabidiol, Balanced THC &amp; CBD), Application (Medical, Recreational), and Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244321-global-healthcare-consulting-services-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1533645-cannabis-market-size-share-growth-analysis-by.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>November 25, 2022</t>
+          <t>August 6, 2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,19 +614,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SQMIG35D2020</t>
+          <t>SQMIG35I2060</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Global Programmable Logic Controller (PLC) Market Size, Share, Growth Analysis, By Type(Integrated or compact PLC, Modular PLC), By Solution(Hardware, Processor), By Industry vertical(Energy &amp; Power, Automotive) - Industry Forecast 2022-2028</t>
+          <t>Global Cannabis Pharmaceuticals Market Size, Share, Growth Analysis, By Brand(Epidiolex, Sativex) - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244320-global-programmable-logic-controller-plc-market.html</t>
+          <t>https://www.giiresearch.com/report/sky1447785-global-cannabis-pharmaceuticals-market-size-share.html</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>November 25, 2022</t>
+          <t>February 27, 2024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SQSG20I2013</t>
+          <t>SQMIG35I2243</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Global Data Center Transformer Market Size, Share, Growth Analysis, By Application(Main Transformer, UPS Transformer), By Insulation Insight(Liquid, Dry) - Industry Forecast 2022-2028</t>
+          <t>Global Cannabis Testing Market Size, Share, Growth Analysis, By Technology, By Test, By End User - Industry Forecast 2023-2030</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260002-global-data-center-transformer-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1441344-global-cannabis-testing-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>November 24, 2022</t>
+          <t>February 18, 2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -688,34 +688,34 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SQSG45I2018</t>
+          <t>SQMIG30C2123</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Global Home Health Market Size, Share, Growth Analysis, By Product(Testing, Screening), By Service(Skilled Nursing Services, Rehabilitation Therapy Services) - Industry Forecast 2022-2028</t>
+          <t>North America Legal Cannabis Market Size, Share, Growth Analysis, By Source(Marijuana, Flowers), By Derivative(CBD, THC), By End - Use(Medical Use, Chronic Pain) - Industry Forecast 2023-2030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250065-global-home-health-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1441286-north-america-legal-cannabis-market-size-share.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>USD 5300</t>
+          <t>USD 3500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>November 24, 2022</t>
+          <t>February 17, 2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>155 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,19 +725,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SQMIG35D2007</t>
+          <t>SQMIG35I2230</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Global Rigid Packaging Market Size, Share, Growth Analysis, By Material(Plastic,Wood), By Application(Food &amp; Beverages,Pharmaceuticals), By Product(Bottle &amp; Jars,Trays), By Production process(Extrusion, Injection Molding)-Industry Forecast 2022-2028</t>
+          <t>Global Legal Cannabis Market Size, Share, Growth Analysis, By Source Sub-segmentsMarijuana, and Hemp(Medical Use, Recreational Use) - Industry Forecast 2023-2030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244319-global-rigid-packaging-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1424551-global-legal-cannabis-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>November 24, 2022</t>
+          <t>December 4, 2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -762,19 +762,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SQSG15G2002</t>
+          <t>SQMIG35J2048</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASEAN And South Asia Mammography Systems Market Size, Share, Growth Analysis, By Product, By Technology, By End-user - Industry Forecast 2022-2028</t>
+          <t>Global Drug Screening Market Size, Share, Growth Analysis, By Type(Alcohol, Cannabis), By End-User(Drug testing laboratories and Workplaces) - Industry Forecast 2023-2030</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244318-asean-south-asia-mammography-systems-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1373842-global-drug-screening-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>November 24, 2022</t>
+          <t>October 30, 2023</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>225 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,19 +799,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SQSA35G2022</t>
+          <t>SQMIG35D2112</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Global Off-Grid Housing Market Size, Share, Growth Analysis, By Renewable Energy(Solar, Wind), By House Type(RV, Country Cabin) - Industry Forecast 2022-2028</t>
+          <t>Global CBD-infused Products Market Size, Share, Growth Analysis, By Source(Hemp, Marijuana), By Type(Edibles (Confectionery Products, Bakery Products), By Distribution Channel(Offline Store (Dispensary, Pharmacies) - Industry Forecast 2023-2030</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260056-global-off-grid-housing-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1286039-global-cbd-infused-products-market-size-share.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>November 23, 2022</t>
+          <t>April 5, 2023</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>279 Pages</t>
+          <t>225 Pages</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SQSG55E2003</t>
+          <t>SQSG35I2047</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Global Hand-held Surgical Instruments Market Size, Share, Growth Analysis, By Product(Forceps, Retractors), By Application(Neurosurgery, Cardiovascular), By End-User(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
+          <t>Global Ignition Interlock Device Market Size, Share, Growth Analysis, By Type, By End Use, By Application - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260001-global-hand-held-surgical-instruments-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1260007-global-ignition-interlock-device-market-size-share.html</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>November 23, 2022</t>
+          <t>November 26, 2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,19 +873,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SQSG35A2034</t>
+          <t>SQSG45J2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Global Dynamic Random Access Memory Market Size, Share, Growth Analysis, By Type(Synchronous DRAM, Extended Data Output), By Technology(DDR4, DDR5), By Application(Mobiles. PCs/Laptops, Gaming Consoles) - Industry Forecast 2022-2028</t>
+          <t>Global 3D Gaming Console Market Size, Share, Growth Analysis, By Console, By Technology, By End- use, By Component, By Platform, By Age Group, By Distribution Channel - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244317-global-dynamic-random-access-memory-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1260006-global-3d-gaming-console-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>November 23, 2022</t>
+          <t>November 26, 2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -910,19 +910,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SQSG45N2006</t>
+          <t>SQSG25E2016</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Global Wave Spring Market Size, Share, Growth Analysis, By Type(Crest-to-Crest Wave Spring, Glass Wave Spring), By Application(Aerospace Electrical Connector, Electronic Tools) - Industry Forecast 2022-2028</t>
+          <t>Global Thyroid Function Test Market Size, Share, Growth Analysis, By Type(TSH tests, T3 tests), By End-use(Hospitals, Research laboratories) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244316-global-wave-spring-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1244323-global-thyroid-function-test-market-size-share.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>November 23, 2022</t>
+          <t>November 26, 2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -947,19 +947,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SQSG20C2007</t>
+          <t>SQMIG35E2010</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Global D-psicose Market Size, Share, Growth Analysis, By Application(Food, Beverages), By Type(Powder, Syrup) - Industry Forecast 2022-2028</t>
+          <t>Global High Density Polyethylene (HDPE) Resins Market Size, Share, Growth Analysis, By Product Type(Adhesive Type HDPE Resin, Coating Type HDPE Resin), By Application(Film, Sheet), By End-User(Packaging, Agriculture) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250091-global-d-psicose-market-size-share-growth-analysis.html</t>
+          <t>https://www.giiresearch.com/report/sky1244322-global-high-density-polyethylene-hdpe-resins.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 26, 2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>248 Pages</t>
+          <t>253 Pages</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -984,19 +984,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SQMIG15E2071</t>
+          <t>SQSG15E2040</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Global Swine Feed Market Size, Share, Growth Analysis, By Type(Starter Feed, Sow Feed), By Form(Pellets, Mash), By Additives(Vitamins &amp; Minerals, Amino acids) - Industry Forecast 2022-2028</t>
+          <t>Global Advanced Wound Care Market Size, Share, Growth Analysis, By Product(Dressings (Foam, Hydrocolloid), By Wound Type(Surgical, Traumatic), By End-User(Hospital, Homecare) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250090-global-swine-feed-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1260005-global-advanced-wound-care-market-size-share.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 25, 2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SQSG30C2027</t>
+          <t>SQMIG35D2009</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Global In-Vitro Diagnostics Market Size, Share, Growth Analysis, By Product &amp; Service, By Technology, By Application, By End-User - Industry Forecast 2022-2028</t>
+          <t>Global Low Voltage DC Circuit Breaker Market Size, Share, Growth Analysis, By Type(Miniature Circuit Breaker, Molded Case Circuit Breaker), By End-Use(Battery Systems, Data Centers) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250089-global-vitro-diagnostics-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1260004-global-low-voltage-dc-circuit-breaker-market-size.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 25, 2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>157 Pages</t>
+          <t>165 Pages</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SQSG35G2015</t>
+          <t>SQSG20D2015</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Global Pre-workout Supplements Market Size, Share, Growth Analysis, By Form(Powder, Capsule), By Distribution Channel(Online, Offline), By Application(Enterprises, Personal) - Industry Forecast 2022-2028</t>
+          <t>Global Packed Pickles Market Size, Share, Growth Analysis, By Product, By Distribution Channel, By Packaging, By Region - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250088-global-pre-workout-supplements-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1260003-global-packed-pickles-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 25, 2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,19 +1095,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SQMIG30L2064</t>
+          <t>SQSG30I2056</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Global Wearable Robotic Exoskeleton Market Size, Share, Growth Analysis, By Type(Full Body, Upper Body), By End-User(Industrial, Defense) - Industry Forecast 2022-2028</t>
+          <t>Global Healthcare Consulting Services Market Size, Share, Growth Analysis, By Type of Service(Digital Health, IT), By End User(Government Bodies, Healthcare Providers) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250087-global-wearable-robotic-exoskeleton-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1244321-global-healthcare-consulting-services-market-size.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 25, 2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SQSG25K2008</t>
+          <t>SQMIG35D2020</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Global Food Service Equipment Market Size, Share, Growth Analysis, By End-user(Full Service Restaurant, Quick Service Restaurant ), By Sales Channel, By Product - Industry Forecast 2022-2028</t>
+          <t>Global Programmable Logic Controller (PLC) Market Size, Share, Growth Analysis, By Type(Integrated or compact PLC, Modular PLC), By Solution(Hardware, Processor), By Industry vertical(Energy &amp; Power, Automotive) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250086-global-food-service-equipment-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1244320-global-programmable-logic-controller-plc-market.html</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 25, 2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1169,19 +1169,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SQSG45J2031</t>
+          <t>SQSG20I2013</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Global PFO Amplatzer Market Size, Share, Growth Analysis, By Type(Amplatzer PFO Occluder), By Application(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
+          <t>Global Data Center Transformer Market Size, Share, Growth Analysis, By Application(Main Transformer, UPS Transformer), By Insulation Insight(Liquid, Dry) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250085-global-pfo-amplatzer-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1260002-global-data-center-transformer-market-size-share.html</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 24, 2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>221 Pages</t>
+          <t>165 Pages</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SQSG35A2066</t>
+          <t>SQSG45I2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Global Smart Pillows Market Size, Share, Growth Analysis, By Application(Residential, Commercial), By Distribution Channel(Online, Offline) - Industry Forecast 2022-2028</t>
+          <t>Global Home Health Market Size, Share, Growth Analysis, By Product(Testing, Screening), By Service(Skilled Nursing Services, Rehabilitation Therapy Services) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250084-global-smart-pillows-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1250065-global-home-health-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 24, 2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>155 Pages</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SQSG30L2031</t>
+          <t>SQMIG35D2007</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Global Commodity Plastics Market Size, Share, Growth Analysis, By Product Type(Polyethylene (PE), Polypropylene (PP)), By Application(Packaging, Automotive), By Plastic Type (Reusable, Recyclable) - Industry Forecast 2022-2028</t>
+          <t>Global Rigid Packaging Market Size, Share, Growth Analysis, By Material(Plastic,Wood), By Application(Food &amp; Beverages,Pharmaceuticals), By Product(Bottle &amp; Jars,Trays), By Production process(Extrusion, Injection Molding)-Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250083-global-commodity-plastics-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1244319-global-rigid-packaging-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 24, 2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1280,19 +1280,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SQSU15A2040</t>
+          <t>SQSG15G2002</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Global Automotive Interior Materials Market Size, Share, Growth Analysis, By Product type(Leather, Composite), By Application (Dashboard, Seats), By Vehicle(Passenger vehicle, Light commercial vehicle) - Industry Forecast 2022-2028</t>
+          <t>ASEAN And South Asia Mammography Systems Market Size, Share, Growth Analysis, By Product, By Technology, By End-user - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250082-global-automotive-interior-materials-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1244318-asean-south-asia-mammography-systems-market-size.html</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 24, 2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>157 Pages</t>
+          <t>225 Pages</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1317,19 +1317,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SQSG25A2021</t>
+          <t>SQSA35G2022</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Global Fingerprint Sensor Market Size, Share, Growth Analysis, By Technology, By Product Type, By Materials Used, By Products, By End-use, By Sensor Technology - Industry Forecast 2022-2028</t>
+          <t>Global Off-Grid Housing Market Size, Share, Growth Analysis, By Renewable Energy(Solar, Wind), By House Type(RV, Country Cabin) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250081-global-fingerprint-sensor-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1260056-global-off-grid-housing-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 23, 2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>279 Pages</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1354,19 +1354,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SQSG45J2036</t>
+          <t>SQSG55E2003</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Global Mobile Edge Computing Market Size, Share, Growth Analysis, By Solution, By End Use, By Organization size, By Verticals, By Application - Industry Forecast 2022-2028</t>
+          <t>Global Hand-held Surgical Instruments Market Size, Share, Growth Analysis, By Product(Forceps, Retractors), By Application(Neurosurgery, Cardiovascular), By End-User(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250080-global-mobile-edge-computing-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1260001-global-hand-held-surgical-instruments-market-size.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 23, 2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1391,19 +1391,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SQSG50A2002</t>
+          <t>SQSG35A2034</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Global GPS Market Size, Share, Growth Analysis, By Type(Automotive Telematics Systems, Consumer Devices), By Industry(Construction, Metals &amp; Mining) - Industry Forecast 2022-2028</t>
+          <t>Global Dynamic Random Access Memory Market Size, Share, Growth Analysis, By Type(Synchronous DRAM, Extended Data Output), By Technology(DDR4, DDR5), By Application(Mobiles. PCs/Laptops, Gaming Consoles) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250072-global-gps-market-size-share-growth-analysis-by.html</t>
+          <t>https://www.giiresearch.com/report/sky1244317-global-dynamic-random-access-memory-market-size.html</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 23, 2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1428,19 +1428,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SQMG25V2001</t>
+          <t>SQSG45N2006</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Global Blepharoplasty Market Size, Share, Growth Analysis, By Procedure Type(Upper Eyelid Surgery, Lower Eyelid Surgery), By End-user(Clinics, Hospitals) - Industry Forecast 2022-2028</t>
+          <t>Global Wave Spring Market Size, Share, Growth Analysis, By Type(Crest-to-Crest Wave Spring, Glass Wave Spring), By Application(Aerospace Electrical Connector, Electronic Tools) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250071-global-blepharoplasty-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1244316-global-wave-spring-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>November 22, 2022</t>
+          <t>November 23, 2022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1465,19 +1465,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SQMG35E2007</t>
+          <t>SQSG20C2007</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Global Waxy Maize Starch Market Size, Share, Growth Analysis, By Type(Native Starch, Modified Starch), By End User(Foods, Beverages), By Nature(Organic and Conventional ) - Industry Forecast 2022-2028</t>
+          <t>Global D-psicose Market Size, Share, Growth Analysis, By Application(Food, Beverages), By Type(Powder, Syrup) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250070-global-waxy-maize-starch-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1250091-global-d-psicose-market-size-share-growth-analysis.html</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>248 Pages</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SQSG15E2033</t>
+          <t>SQMIG15E2071</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Global Steering Column Control Module Market Size, Share, Growth Analysis, By System Type, By Vehicle Type, By Steering types - Industry Forecast 2022-2028</t>
+          <t>Global Swine Feed Market Size, Share, Growth Analysis, By Type(Starter Feed, Sow Feed), By Form(Pellets, Mash), By Additives(Vitamins &amp; Minerals, Amino acids) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1250069-global-steering-column-control-module-market-size.html</t>
+          <t>https://www.giiresearch.com/report/sky1250090-global-swine-feed-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>272 Pages</t>
+          <t>165 Pages</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1539,19 +1539,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SQSG25AG2001</t>
+          <t>SQSG30C2027</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Global Satellite Communication Market Size, Share, Growth Analysis, By Components(Equipment, By Application(Asset Tracking/Monitoring, Airtime, By Verticals(Energy &amp; Utility, Government &amp; Defense - Industry Forecast 2022-2028</t>
+          <t>Global In-Vitro Diagnostics Market Size, Share, Growth Analysis, By Product &amp; Service, By Technology, By Application, By End-User - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244315-global-satellite-communication-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1250089-global-vitro-diagnostics-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1576,19 +1576,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SQMIG45H2017</t>
+          <t>SQSG35G2015</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Global Textile Colorant Market Size, Share, Growth Analysis, By Source(Natural, Synthetic), By Type(Zoic Dyes, Direct Dyes), By Application(Clothing, Technical Textiles) - Industry Forecast 2022-2028</t>
+          <t>Global Pre-workout Supplements Market Size, Share, Growth Analysis, By Form(Powder, Capsule), By Distribution Channel(Online, Offline), By Application(Enterprises, Personal) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244314-global-textile-colorant-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1250088-global-pre-workout-supplements-market-size-share.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1613,19 +1613,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SQSG15E2014</t>
+          <t>SQMIG30L2064</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US Laundry Facilities Dry Cleaning Services Market Size, Share, Growth Analysis, By Form(Powder, Liquid), By Type (Coin-operated, Retail Laundry/Dry Clean Services), By Application(Residential, Commercial) - Industry Forecast 2022-2028</t>
+          <t>Global Wearable Robotic Exoskeleton Market Size, Share, Growth Analysis, By Type(Full Body, Upper Body), By End-User(Industrial, Defense) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1260000-us-laundry-facilities-dry-cleaning-services-market.html</t>
+          <t>https://www.giiresearch.com/report/sky1250087-global-wearable-robotic-exoskeleton-market-size.html</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>November 21, 2022</t>
+          <t>November 22, 2022</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1650,19 +1650,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SQSU25S2012</t>
+          <t>SQSG25K2008</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Global Telecom Generator Market Size, Share, Growth Analysis, By Component(Rectifiers, Inverters), By Grid-type(On-Grid, Off-Grid), By Fuel(Diesel, Gas), By Power Rating(Below 75 kVA, 75 kVA - 375 kVA) - Industry Forecast 2022-2028</t>
+          <t>Global Food Service Equipment Market Size, Share, Growth Analysis, By End-user(Full Service Restaurant, Quick Service Restaurant ), By Sales Channel, By Product - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244313-global-telecom-generator-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1250086-global-food-service-equipment-market-size-share.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>November 21, 2022</t>
+          <t>November 22, 2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1687,19 +1687,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SQMG45A2010</t>
+          <t>SQSG45J2031</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Global Gypsum Board Market Size, Share, Growth Analysis, By Product(Wallboard, Ceiling Board), By Type(Standard, Type X), By Application(Pre-engineered Buildings, Residential) - Industry Forecast 2022-2028</t>
+          <t>Global PFO Amplatzer Market Size, Share, Growth Analysis, By Type(Amplatzer PFO Occluder), By Application(Hospitals, Clinics) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244312-global-gypsum-board-market-size-share-growth.html</t>
+          <t>https://www.giiresearch.com/report/sky1250085-global-pfo-amplatzer-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>November 21, 2022</t>
+          <t>November 22, 2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>157 Pages</t>
+          <t>221 Pages</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1724,19 +1724,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>SQMIG15F2021</t>
+          <t>SQSG35A2066</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Global Aircraft Line Maintenance Market Size, Share, Growth Analysis, By Type, By Service, By Aircraft Type(Narrow Body Aircraft, Wide Body Aircraft ) - Industry Forecast 2022-2028</t>
+          <t>Global Smart Pillows Market Size, Share, Growth Analysis, By Application(Residential, Commercial), By Distribution Channel(Online, Offline) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1259999-global-aircraft-line-maintenance-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1250084-global-smart-pillows-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>November 20, 2022</t>
+          <t>November 22, 2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>278 Pages</t>
+          <t>165 Pages</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1761,19 +1761,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SQSG20R2004</t>
+          <t>SQSG30L2031</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Global Artisanal Ice Cream Market Size, Share, Growth Analysis, By Type(Lactose-free, Conventional), By Flavour(Chocolate, Vanilla), By Distribution Channel(Convenience Stores, Specialty Stores) - Industry Forecast 2022-2028</t>
+          <t>Global Commodity Plastics Market Size, Share, Growth Analysis, By Product Type(Polyethylene (PE), Polypropylene (PP)), By Application(Packaging, Automotive), By Plastic Type (Reusable, Recyclable) - Industry Forecast 2022-2028</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.giiresearch.com/report/sky1244311-global-artisanal-ice-cream-market-size-share.html</t>
+          <t>https://www.giiresearch.com/report/sky1250083-global-commodity-plastics-market-size-share-growth.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>November 20, 2022</t>
+          <t>November 22, 2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>165 Pages</t>
+          <t>157 Pages</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1798,44 +1798,599 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SQMIG30I2091</t>
+          <t>SQSU15A2040</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Global Automotive Interior Materials Market Size, Share, Growth Analysis, By Product type(Leather, Composite), By Application (Dashboard, Seats), By Vehicle(Passenger vehicle, Light commercial vehicle) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250082-global-automotive-interior-materials-market-size.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SQSG25A2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Global Fingerprint Sensor Market Size, Share, Growth Analysis, By Technology, By Product Type, By Materials Used, By Products, By End-use, By Sensor Technology - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250081-global-fingerprint-sensor-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SQSG45J2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Global Mobile Edge Computing Market Size, Share, Growth Analysis, By Solution, By End Use, By Organization size, By Verticals, By Application - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250080-global-mobile-edge-computing-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SQSG50A2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Global GPS Market Size, Share, Growth Analysis, By Type(Automotive Telematics Systems, Consumer Devices), By Industry(Construction, Metals &amp; Mining) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250072-global-gps-market-size-share-growth-analysis-by.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SQMG25V2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Global Blepharoplasty Market Size, Share, Growth Analysis, By Procedure Type(Upper Eyelid Surgery, Lower Eyelid Surgery), By End-user(Clinics, Hospitals) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250071-global-blepharoplasty-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>SQMG35E2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Global Waxy Maize Starch Market Size, Share, Growth Analysis, By Type(Native Starch, Modified Starch), By End User(Foods, Beverages), By Nature(Organic and Conventional ) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250070-global-waxy-maize-starch-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SQSG15E2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Global Steering Column Control Module Market Size, Share, Growth Analysis, By System Type, By Vehicle Type, By Steering types - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1250069-global-steering-column-control-module-market-size.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>272 Pages</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SQSG25AG2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Global Satellite Communication Market Size, Share, Growth Analysis, By Components(Equipment, By Application(Asset Tracking/Monitoring, Airtime, By Verticals(Energy &amp; Utility, Government &amp; Defense - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244315-global-satellite-communication-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SQMIG45H2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Global Textile Colorant Market Size, Share, Growth Analysis, By Source(Natural, Synthetic), By Type(Zoic Dyes, Direct Dyes), By Application(Clothing, Technical Textiles) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244314-global-textile-colorant-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>November 22, 2022</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>SQSG15E2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>US Laundry Facilities Dry Cleaning Services Market Size, Share, Growth Analysis, By Form(Powder, Liquid), By Type (Coin-operated, Retail Laundry/Dry Clean Services), By Application(Residential, Commercial) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1260000-us-laundry-facilities-dry-cleaning-services-market.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SQSU25S2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Global Telecom Generator Market Size, Share, Growth Analysis, By Component(Rectifiers, Inverters), By Grid-type(On-Grid, Off-Grid), By Fuel(Diesel, Gas), By Power Rating(Below 75 kVA, 75 kVA - 375 kVA) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244313-global-telecom-generator-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SQMG45A2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Global Gypsum Board Market Size, Share, Growth Analysis, By Product(Wallboard, Ceiling Board), By Type(Standard, Type X), By Application(Pre-engineered Buildings, Residential) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244312-global-gypsum-board-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SQMIG15F2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Global Aircraft Line Maintenance Market Size, Share, Growth Analysis, By Type, By Service, By Aircraft Type(Narrow Body Aircraft, Wide Body Aircraft ) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1259999-global-aircraft-line-maintenance-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>278 Pages</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SQSG20R2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Global Artisanal Ice Cream Market Size, Share, Growth Analysis, By Type(Lactose-free, Conventional), By Flavour(Chocolate, Vanilla), By Distribution Channel(Convenience Stores, Specialty Stores) - Industry Forecast 2022-2028</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1244311-global-artisanal-ice-cream-market-size-share.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>165 Pages</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SQMIG30I2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>Global Yellow Pea Protein Market Size, Share, Growth Analysis, By Type, By Source process, By Processing method, By Application, By Form - Industry Forecast 2022-2028</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>https://www.giiresearch.com/report/sky1244310-global-yellow-pea-protein-market-size-share-growth.html</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>USD 3500</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>November 20, 2022</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>157 Pages</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>SkyQuest</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>157 Pages</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>SQSG30B2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Artificial Organs Market Size, Share, Growth Analysis, By Organ Type, By Fixation, By Material, By End User, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.giiresearch.com/report/sky1593465-artificial-organs-market-size-share-growth.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>USD 5300</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>182 Pages</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SkyQuest</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SQMIG35H2303</t>
         </is>
       </c>
     </row>
